--- a/deviceApiService/configTest.xlsx
+++ b/deviceApiService/configTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dell-my.sharepoint.com/personal/tamilselvan_b_dell_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC104889615B65085ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF3107D-783D-42AB-B587-8F3C289E00BE}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104889615B65085ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5708791C-3F5E-46FD-9FF2-59B615BDB168}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1056" yWindow="1740" windowWidth="11232" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>conf1</t>
-  </si>
-  <si>
-    <t>conf2</t>
-  </si>
-  <si>
-    <t>conf3</t>
-  </si>
-  <si>
     <t>prof1</t>
   </si>
   <si>
@@ -48,31 +39,22 @@
     <t>prof3</t>
   </si>
   <si>
-    <t>Prof1Conf1</t>
-  </si>
-  <si>
-    <t>Prof1Conf2</t>
-  </si>
-  <si>
-    <t>Prof1Conf3</t>
-  </si>
-  <si>
-    <t>Prof2Conf1</t>
-  </si>
-  <si>
-    <t>Prof2Conf2</t>
-  </si>
-  <si>
-    <t>Prof2Conf3</t>
-  </si>
-  <si>
-    <t>Prof3Conf1</t>
-  </si>
-  <si>
-    <t>Prof3Conf2</t>
-  </si>
-  <si>
-    <t>Prof3Conf3</t>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>70GHz</t>
+  </si>
+  <si>
+    <t>80GHz</t>
+  </si>
+  <si>
+    <t>75GHz</t>
   </si>
 </sst>
 </file>
@@ -393,7 +375,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,55 +390,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
